--- a/Table 3 - ANOVA/Table 3 - ANOVA.xlsx
+++ b/Table 3 - ANOVA/Table 3 - ANOVA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
@@ -126,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -143,8 +143,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,8 +169,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -168,24 +181,34 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,189 +538,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G13"/>
+  <dimension ref="A2:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G13"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
       <c r="C5" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24337900000000001</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="1">
-        <v>13.1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.24337900000000001</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="C6" s="3">
+        <v>57</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.9139999999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.0204000000000002E-2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>487.9</v>
+      </c>
+      <c r="D7" s="3">
+        <v>29.611999999999998</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.56669700000000001</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>108</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.5549999999999997</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.0625000000000001E-2</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6.9139999999999997</v>
-      </c>
-      <c r="F6" s="4">
-        <v>3.0204000000000002E-2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>487.9</v>
-      </c>
-      <c r="E7" s="3">
-        <v>29.611999999999998</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.56669700000000001</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C10" s="1">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.70587</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>108</v>
-      </c>
-      <c r="E9" s="3">
-        <v>6.5549999999999997</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2.0625000000000001E-2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.70587</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B11" s="1">
+        <v>8</v>
+      </c>
       <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
         <v>65.900000000000006</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Table 3 - ANOVA/Table 3 - ANOVA.xlsx
+++ b/Table 3 - ANOVA/Table 3 - ANOVA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14900" tabRatio="500"/>
+    <workbookView xWindow="10460" yWindow="6060" windowWidth="33960" windowHeight="20400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>df</t>
   </si>
   <si>
-    <t>Table 3. Results of the analysis of PSC concentration using a 3-way ANOVA . Bold denotes significant results</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -76,13 +73,35 @@
   </si>
   <si>
     <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ N.S.</t>
+  </si>
+  <si>
+    <r>
+      <t>Table 3. Results of the analysis of integrated chlorophyll-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve"> concentration using a 3-way ANOVA . Bold denotes significant results</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +132,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -548,7 +573,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -581,12 +606,12 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -601,12 +626,12 @@
         <v>0.24337900000000001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -646,7 +671,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -661,12 +686,12 @@
         <v>0.56669700000000001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -686,7 +711,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -701,7 +726,7 @@
         <v>0.70587</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -719,7 +744,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
